--- a/medicine/Mort/Pacte_suicidaire/Pacte_suicidaire.xlsx
+++ b/medicine/Mort/Pacte_suicidaire/Pacte_suicidaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un pacte suicidaire ou pacte de suicide est un plan arrangé entre deux (ou plusieurs) personnes selon lequel elles décident de se suicider ensemble au même endroit ou au même moment, généralement par des moyens similaires. Au Japon, le double suicide des amoureux s'appelle un shinjū. Le pacte suicidaire représente environ 1 % des suicides dans les pays occidentaux et 3 % de ceux-ci en Asie[1]. Il est parfois préparé via Internet.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un pacte suicidaire ou pacte de suicide est un plan arrangé entre deux (ou plusieurs) personnes selon lequel elles décident de se suicider ensemble au même endroit ou au même moment, généralement par des moyens similaires. Au Japon, le double suicide des amoureux s'appelle un shinjū. Le pacte suicidaire représente environ 1 % des suicides dans les pays occidentaux et 3 % de ceux-ci en Asie. Il est parfois préparé via Internet.
 </t>
         </is>
       </c>
